--- a/Import_Inventory/18.-2.2 คลังสิ้นเปลืองโรงงาน.xlsx
+++ b/Import_Inventory/18.-2.2 คลังสิ้นเปลืองโรงงาน.xlsx
@@ -502,10 +502,10 @@
     <t>SSP00045</t>
   </si>
   <si>
+    <t>ST01-OB</t>
+  </si>
+  <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>ST01-OB</t>
   </si>
   <si>
     <t>คลังสิ้นเปลืองโรงงาน1-2</t>
@@ -865,7 +865,7 @@
   <dimension ref="A1:K177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E177"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -873,7 +873,7 @@
     <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +905,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
@@ -916,7 +916,7 @@
         <v>45991</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D2" s="2">
         <v>45991</v>
@@ -951,7 +951,7 @@
         <v>45991</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" s="2">
         <v>45991</v>
@@ -986,7 +986,7 @@
         <v>45991</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" s="2">
         <v>45991</v>
@@ -1021,7 +1021,7 @@
         <v>45991</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="2">
         <v>45991</v>
@@ -1056,7 +1056,7 @@
         <v>45991</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="2">
         <v>45991</v>
@@ -1091,7 +1091,7 @@
         <v>45991</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="2">
         <v>45991</v>
@@ -1126,7 +1126,7 @@
         <v>45991</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" s="2">
         <v>45991</v>
@@ -1161,7 +1161,7 @@
         <v>45991</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="2">
         <v>45991</v>
@@ -1196,7 +1196,7 @@
         <v>45991</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="2">
         <v>45991</v>
@@ -1231,7 +1231,7 @@
         <v>45991</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="2">
         <v>45991</v>
@@ -1266,7 +1266,7 @@
         <v>45991</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" s="2">
         <v>45991</v>
@@ -1301,7 +1301,7 @@
         <v>45991</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" s="2">
         <v>45991</v>
@@ -1336,7 +1336,7 @@
         <v>45991</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="2">
         <v>45991</v>
@@ -1371,7 +1371,7 @@
         <v>45991</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" s="2">
         <v>45991</v>
@@ -1406,7 +1406,7 @@
         <v>45991</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="2">
         <v>45991</v>
@@ -1441,7 +1441,7 @@
         <v>45991</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="2">
         <v>45991</v>
@@ -1476,7 +1476,7 @@
         <v>45991</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="2">
         <v>45991</v>
@@ -1511,7 +1511,7 @@
         <v>45991</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" s="2">
         <v>45991</v>
@@ -1546,7 +1546,7 @@
         <v>45991</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" s="2">
         <v>45991</v>
@@ -1581,7 +1581,7 @@
         <v>45991</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D21" s="2">
         <v>45991</v>
@@ -1616,7 +1616,7 @@
         <v>45991</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D22" s="2">
         <v>45991</v>
@@ -1651,7 +1651,7 @@
         <v>45991</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" s="2">
         <v>45991</v>
@@ -1686,7 +1686,7 @@
         <v>45991</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" s="2">
         <v>45991</v>
@@ -1721,7 +1721,7 @@
         <v>45991</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D25" s="2">
         <v>45991</v>
@@ -1756,7 +1756,7 @@
         <v>45991</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D26" s="2">
         <v>45991</v>
@@ -1791,7 +1791,7 @@
         <v>45991</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D27" s="2">
         <v>45991</v>
@@ -1826,7 +1826,7 @@
         <v>45991</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D28" s="2">
         <v>45991</v>
@@ -1861,7 +1861,7 @@
         <v>45991</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D29" s="2">
         <v>45991</v>
@@ -1896,7 +1896,7 @@
         <v>45991</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D30" s="2">
         <v>45991</v>
@@ -1931,7 +1931,7 @@
         <v>45991</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D31" s="2">
         <v>45991</v>
@@ -1966,7 +1966,7 @@
         <v>45991</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D32" s="2">
         <v>45991</v>
@@ -2001,7 +2001,7 @@
         <v>45991</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D33" s="2">
         <v>45991</v>
@@ -2036,7 +2036,7 @@
         <v>45991</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D34" s="2">
         <v>45991</v>
@@ -2071,7 +2071,7 @@
         <v>45991</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D35" s="2">
         <v>45991</v>
@@ -2106,7 +2106,7 @@
         <v>45991</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D36" s="2">
         <v>45991</v>
@@ -2141,7 +2141,7 @@
         <v>45991</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D37" s="2">
         <v>45991</v>
@@ -2176,7 +2176,7 @@
         <v>45991</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D38" s="2">
         <v>45991</v>
@@ -2211,7 +2211,7 @@
         <v>45991</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D39" s="2">
         <v>45991</v>
@@ -2246,7 +2246,7 @@
         <v>45991</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D40" s="2">
         <v>45991</v>
@@ -2281,7 +2281,7 @@
         <v>45991</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D41" s="2">
         <v>45991</v>
@@ -2316,7 +2316,7 @@
         <v>45991</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D42" s="2">
         <v>45991</v>
@@ -2351,7 +2351,7 @@
         <v>45991</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D43" s="2">
         <v>45991</v>
@@ -2386,7 +2386,7 @@
         <v>45991</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D44" s="2">
         <v>45991</v>
@@ -2421,7 +2421,7 @@
         <v>45991</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D45" s="2">
         <v>45991</v>
@@ -2456,7 +2456,7 @@
         <v>45991</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D46" s="2">
         <v>45991</v>
@@ -2491,7 +2491,7 @@
         <v>45991</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D47" s="2">
         <v>45991</v>
@@ -2526,7 +2526,7 @@
         <v>45991</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D48" s="2">
         <v>45991</v>
@@ -2561,7 +2561,7 @@
         <v>45991</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D49" s="2">
         <v>45991</v>
@@ -2596,7 +2596,7 @@
         <v>45991</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D50" s="2">
         <v>45991</v>
@@ -2631,7 +2631,7 @@
         <v>45991</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D51" s="2">
         <v>45991</v>
@@ -2666,7 +2666,7 @@
         <v>45991</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="2">
         <v>45991</v>
@@ -2701,7 +2701,7 @@
         <v>45991</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="2">
         <v>45991</v>
@@ -2736,7 +2736,7 @@
         <v>45991</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="2">
         <v>45991</v>
@@ -2771,7 +2771,7 @@
         <v>45991</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="2">
         <v>45991</v>
@@ -2806,7 +2806,7 @@
         <v>45991</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="2">
         <v>45991</v>
@@ -2841,7 +2841,7 @@
         <v>45991</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57" s="2">
         <v>45991</v>
@@ -2876,7 +2876,7 @@
         <v>45991</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D58" s="2">
         <v>45991</v>
@@ -2911,7 +2911,7 @@
         <v>45991</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D59" s="2">
         <v>45991</v>
@@ -2946,7 +2946,7 @@
         <v>45991</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D60" s="2">
         <v>45991</v>
@@ -2981,7 +2981,7 @@
         <v>45991</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D61" s="2">
         <v>45991</v>
@@ -3016,7 +3016,7 @@
         <v>45991</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D62" s="2">
         <v>45991</v>
@@ -3051,7 +3051,7 @@
         <v>45991</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D63" s="2">
         <v>45991</v>
@@ -3086,7 +3086,7 @@
         <v>45991</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D64" s="2">
         <v>45991</v>
@@ -3121,7 +3121,7 @@
         <v>45991</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D65" s="2">
         <v>45991</v>
@@ -3156,7 +3156,7 @@
         <v>45991</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D66" s="2">
         <v>45991</v>
@@ -3191,7 +3191,7 @@
         <v>45991</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D67" s="2">
         <v>45991</v>
@@ -3226,7 +3226,7 @@
         <v>45991</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D68" s="2">
         <v>45991</v>
@@ -3261,7 +3261,7 @@
         <v>45991</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D69" s="2">
         <v>45991</v>
@@ -3296,7 +3296,7 @@
         <v>45991</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D70" s="2">
         <v>45991</v>
@@ -3331,7 +3331,7 @@
         <v>45991</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D71" s="2">
         <v>45991</v>
@@ -3366,7 +3366,7 @@
         <v>45991</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D72" s="2">
         <v>45991</v>
@@ -3401,7 +3401,7 @@
         <v>45991</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D73" s="2">
         <v>45991</v>
@@ -3436,7 +3436,7 @@
         <v>45991</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D74" s="2">
         <v>45991</v>
@@ -3471,7 +3471,7 @@
         <v>45991</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D75" s="2">
         <v>45991</v>
@@ -3506,7 +3506,7 @@
         <v>45991</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D76" s="2">
         <v>45991</v>
@@ -3541,7 +3541,7 @@
         <v>45991</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D77" s="2">
         <v>45991</v>
@@ -3576,7 +3576,7 @@
         <v>45991</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D78" s="2">
         <v>45991</v>
@@ -3611,7 +3611,7 @@
         <v>45991</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D79" s="2">
         <v>45991</v>
@@ -3646,7 +3646,7 @@
         <v>45991</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D80" s="2">
         <v>45991</v>
@@ -3681,7 +3681,7 @@
         <v>45991</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D81" s="2">
         <v>45991</v>
@@ -3716,7 +3716,7 @@
         <v>45991</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D82" s="2">
         <v>45991</v>
@@ -3751,7 +3751,7 @@
         <v>45991</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D83" s="2">
         <v>45991</v>
@@ -3786,7 +3786,7 @@
         <v>45991</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D84" s="2">
         <v>45991</v>
@@ -3821,7 +3821,7 @@
         <v>45991</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D85" s="2">
         <v>45991</v>
@@ -3856,7 +3856,7 @@
         <v>45991</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D86" s="2">
         <v>45991</v>
@@ -3891,7 +3891,7 @@
         <v>45991</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D87" s="2">
         <v>45991</v>
@@ -3926,7 +3926,7 @@
         <v>45991</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D88" s="2">
         <v>45991</v>
@@ -3961,7 +3961,7 @@
         <v>45991</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D89" s="2">
         <v>45991</v>
@@ -3996,7 +3996,7 @@
         <v>45991</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D90" s="2">
         <v>45991</v>
@@ -4031,7 +4031,7 @@
         <v>45991</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D91" s="2">
         <v>45991</v>
@@ -4066,7 +4066,7 @@
         <v>45991</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D92" s="2">
         <v>45991</v>
@@ -4101,7 +4101,7 @@
         <v>45991</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D93" s="2">
         <v>45991</v>
@@ -4136,7 +4136,7 @@
         <v>45991</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D94" s="2">
         <v>45991</v>
@@ -4171,7 +4171,7 @@
         <v>45991</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D95" s="2">
         <v>45991</v>
@@ -4206,7 +4206,7 @@
         <v>45991</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D96" s="2">
         <v>45991</v>
@@ -4241,7 +4241,7 @@
         <v>45991</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D97" s="2">
         <v>45991</v>
@@ -4276,7 +4276,7 @@
         <v>45991</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D98" s="2">
         <v>45991</v>
@@ -4311,7 +4311,7 @@
         <v>45991</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D99" s="2">
         <v>45991</v>
@@ -4346,7 +4346,7 @@
         <v>45991</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D100" s="2">
         <v>45991</v>
@@ -4381,7 +4381,7 @@
         <v>45991</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D101" s="2">
         <v>45991</v>
@@ -4416,7 +4416,7 @@
         <v>45991</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D102" s="2">
         <v>45991</v>
@@ -4451,7 +4451,7 @@
         <v>45991</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D103" s="2">
         <v>45991</v>
@@ -4486,7 +4486,7 @@
         <v>45991</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D104" s="2">
         <v>45991</v>
@@ -4521,7 +4521,7 @@
         <v>45991</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D105" s="2">
         <v>45991</v>
@@ -4556,7 +4556,7 @@
         <v>45991</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D106" s="2">
         <v>45991</v>
@@ -4591,7 +4591,7 @@
         <v>45991</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D107" s="2">
         <v>45991</v>
@@ -4626,7 +4626,7 @@
         <v>45991</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D108" s="2">
         <v>45991</v>
@@ -4661,7 +4661,7 @@
         <v>45991</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D109" s="2">
         <v>45991</v>
@@ -4696,7 +4696,7 @@
         <v>45991</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D110" s="2">
         <v>45991</v>
@@ -4731,7 +4731,7 @@
         <v>45991</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D111" s="2">
         <v>45991</v>
@@ -4766,7 +4766,7 @@
         <v>45991</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D112" s="2">
         <v>45991</v>
@@ -4801,7 +4801,7 @@
         <v>45991</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D113" s="2">
         <v>45991</v>
@@ -4836,7 +4836,7 @@
         <v>45991</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D114" s="2">
         <v>45991</v>
@@ -4871,7 +4871,7 @@
         <v>45991</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D115" s="2">
         <v>45991</v>
@@ -4906,7 +4906,7 @@
         <v>45991</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D116" s="2">
         <v>45991</v>
@@ -4941,7 +4941,7 @@
         <v>45991</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D117" s="2">
         <v>45991</v>
@@ -4976,7 +4976,7 @@
         <v>45991</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D118" s="2">
         <v>45991</v>
@@ -5011,7 +5011,7 @@
         <v>45991</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D119" s="2">
         <v>45991</v>
@@ -5046,7 +5046,7 @@
         <v>45991</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D120" s="2">
         <v>45991</v>
@@ -5081,7 +5081,7 @@
         <v>45991</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D121" s="2">
         <v>45991</v>
@@ -5116,7 +5116,7 @@
         <v>45991</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D122" s="2">
         <v>45991</v>
@@ -5151,7 +5151,7 @@
         <v>45991</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D123" s="2">
         <v>45991</v>
@@ -5186,7 +5186,7 @@
         <v>45991</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D124" s="2">
         <v>45991</v>
@@ -5221,7 +5221,7 @@
         <v>45991</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D125" s="2">
         <v>45991</v>
@@ -5256,7 +5256,7 @@
         <v>45991</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D126" s="2">
         <v>45991</v>
@@ -5291,7 +5291,7 @@
         <v>45991</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D127" s="2">
         <v>45991</v>
@@ -5326,7 +5326,7 @@
         <v>45991</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D128" s="2">
         <v>45991</v>
@@ -5361,7 +5361,7 @@
         <v>45991</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D129" s="2">
         <v>45991</v>
@@ -5396,7 +5396,7 @@
         <v>45991</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D130" s="2">
         <v>45991</v>
@@ -5431,7 +5431,7 @@
         <v>45991</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D131" s="2">
         <v>45991</v>
@@ -5466,7 +5466,7 @@
         <v>45991</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D132" s="2">
         <v>45991</v>
@@ -5501,7 +5501,7 @@
         <v>45991</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D133" s="2">
         <v>45991</v>
@@ -5536,7 +5536,7 @@
         <v>45991</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D134" s="2">
         <v>45991</v>
@@ -5571,7 +5571,7 @@
         <v>45991</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D135" s="2">
         <v>45991</v>
@@ -5606,7 +5606,7 @@
         <v>45991</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D136" s="2">
         <v>45991</v>
@@ -5641,7 +5641,7 @@
         <v>45991</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D137" s="2">
         <v>45991</v>
@@ -5676,7 +5676,7 @@
         <v>45991</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D138" s="2">
         <v>45991</v>
@@ -5711,7 +5711,7 @@
         <v>45991</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D139" s="2">
         <v>45991</v>
@@ -5746,7 +5746,7 @@
         <v>45991</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D140" s="2">
         <v>45991</v>
@@ -5781,7 +5781,7 @@
         <v>45991</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D141" s="2">
         <v>45991</v>
@@ -5816,7 +5816,7 @@
         <v>45991</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D142" s="2">
         <v>45991</v>
@@ -5851,7 +5851,7 @@
         <v>45991</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D143" s="2">
         <v>45991</v>
@@ -5886,7 +5886,7 @@
         <v>45991</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D144" s="2">
         <v>45991</v>
@@ -5921,7 +5921,7 @@
         <v>45991</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D145" s="2">
         <v>45991</v>
@@ -5956,7 +5956,7 @@
         <v>45991</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D146" s="2">
         <v>45991</v>
@@ -5991,7 +5991,7 @@
         <v>45991</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D147" s="2">
         <v>45991</v>
@@ -6026,7 +6026,7 @@
         <v>45991</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D148" s="2">
         <v>45991</v>
@@ -6061,7 +6061,7 @@
         <v>45991</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D149" s="2">
         <v>45991</v>
@@ -6096,7 +6096,7 @@
         <v>45991</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D150" s="2">
         <v>45991</v>
@@ -6131,7 +6131,7 @@
         <v>45991</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D151" s="2">
         <v>45991</v>
@@ -6166,7 +6166,7 @@
         <v>45991</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D152" s="2">
         <v>45991</v>
@@ -6201,7 +6201,7 @@
         <v>45991</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D153" s="2">
         <v>45991</v>
@@ -6236,7 +6236,7 @@
         <v>45991</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D154" s="2">
         <v>45991</v>
@@ -6271,7 +6271,7 @@
         <v>45991</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D155" s="2">
         <v>45991</v>
@@ -6306,7 +6306,7 @@
         <v>45991</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D156" s="2">
         <v>45991</v>
@@ -6341,7 +6341,7 @@
         <v>45991</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D157" s="2">
         <v>45991</v>
@@ -6376,7 +6376,7 @@
         <v>45991</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D158" s="2">
         <v>45991</v>
@@ -6411,7 +6411,7 @@
         <v>45991</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D159" s="2">
         <v>45991</v>
@@ -6446,7 +6446,7 @@
         <v>45991</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D160" s="2">
         <v>45991</v>
@@ -6481,7 +6481,7 @@
         <v>45991</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D161" s="2">
         <v>45991</v>
@@ -6516,7 +6516,7 @@
         <v>45991</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D162" s="2">
         <v>45991</v>
@@ -6551,7 +6551,7 @@
         <v>45991</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D163" s="2">
         <v>45991</v>
@@ -6586,7 +6586,7 @@
         <v>45991</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D164" s="2">
         <v>45991</v>
@@ -6621,7 +6621,7 @@
         <v>45991</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D165" s="2">
         <v>45991</v>
@@ -6656,7 +6656,7 @@
         <v>45991</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D166" s="2">
         <v>45991</v>
@@ -6691,7 +6691,7 @@
         <v>45991</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D167" s="2">
         <v>45991</v>
@@ -6726,7 +6726,7 @@
         <v>45991</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D168" s="2">
         <v>45991</v>
@@ -6761,7 +6761,7 @@
         <v>45991</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D169" s="2">
         <v>45991</v>
@@ -6796,7 +6796,7 @@
         <v>45991</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D170" s="2">
         <v>45991</v>
@@ -6831,7 +6831,7 @@
         <v>45991</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D171" s="2">
         <v>45991</v>
@@ -6866,7 +6866,7 @@
         <v>45991</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D172" s="2">
         <v>45991</v>
@@ -6901,7 +6901,7 @@
         <v>45991</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D173" s="2">
         <v>45991</v>
@@ -6936,7 +6936,7 @@
         <v>45991</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D174" s="2">
         <v>45991</v>
@@ -6971,7 +6971,7 @@
         <v>45991</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D175" s="2">
         <v>45991</v>
@@ -7006,7 +7006,7 @@
         <v>45991</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D176" s="2">
         <v>45991</v>
@@ -7041,7 +7041,7 @@
         <v>45991</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D177" s="2">
         <v>45991</v>
